--- a/文档/数据字典.xlsx
+++ b/文档/数据字典.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61F894-BAB8-404D-97A3-488EAEBBDB81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="279">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,10 +515,6 @@
   </si>
   <si>
     <t>职位描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文表(paper)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,28 +661,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主要作者业务工作简历(Author's_Professional_Resume)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">硕士、博士注明学位论文及导师姓名
-（如获奖，请注明获奖名称、等级、获奖年份，所有参与者发表与本书稿相关的主要论著及论文目录)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位审查意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -704,10 +681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审查表(examination)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位审查时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -927,10 +900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目(project)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,14 +969,130 @@
   </si>
   <si>
     <t>奖励津贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文表(thesis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文审核(thesisverify)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文奖励规则表(ThesisReward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获奖论文(ThesisWinAward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文级别(ThesisGrade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文刊期(ThesisPeriodical)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文评分规则(ThesisScore)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍审核(bookverify)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍奖励规则表(BookReward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获奖书籍(BookWinAward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍级别(BookGrade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍刊期(BookPeriodical)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍评分规则(BookScore)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利表(patent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利审核(Patentverify)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利奖励规则表(PatentReward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获奖专利(PatentWinAward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利级别(PatentGrade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利刊期(PatentPeriodical)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利评分规则(PatentScore)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布项目表(project)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目审核表(examination)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目中期报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目结题报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告审评标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目奖励规则表(ProjectReward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获奖项目(ProjectWinAward)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目级别(ProjectGrade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目评分规则(ProjectScore)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,18 +1245,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,6 +1262,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,7 +1293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1250,7 +1335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,27 +1367,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,24 +1401,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1527,14 +1576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q319"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -1545,15 +1594,15 @@
     <col min="10" max="10" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1609,59 +1658,59 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="27.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1689,7 +1738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="27.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1703,7 +1752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="27.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -1717,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="27.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1731,7 +1780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="27.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1745,7 +1794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="27.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1759,7 +1808,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="27.95" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1773,7 +1822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="27.95" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1787,67 +1836,67 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="27.95" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="27.95" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="27.95" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="27.95" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="26" spans="1:5" ht="27.95" customHeight="1"/>
+    <row r="27" spans="1:5" ht="27.95" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.95" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="27.95" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1861,7 +1910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="27.95" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1875,7 +1924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="27.95" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -1889,7 +1938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="27.95" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,48 +1952,48 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="27.95" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27.95" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27.95" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27.95" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27.95" customHeight="1"/>
+    <row r="38" spans="1:4" ht="27.95" customHeight="1">
+      <c r="A38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="27.95" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1958,7 +2007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="27.95" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +2021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="27.95" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1986,7 +2035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="27.95" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -2000,7 +2049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="27.95" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -2014,7 +2063,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="27.95" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2028,7 +2077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="27.95" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="27.95" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +2105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="27.95" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2119,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="27.95" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -2084,7 +2133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" ht="27.95" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -2098,7 +2147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" ht="27.95" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -2112,7 +2161,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" ht="27.95" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" ht="24.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -2140,7 +2189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" ht="24.95" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -2154,7 +2203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" ht="24.95" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -2168,7 +2217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" ht="24.95" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" ht="24.95" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
@@ -2199,7 +2248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" ht="24.95" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" ht="24.95" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -2233,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" ht="24.95" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -2246,22 +2295,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" ht="24.95" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" ht="24.95" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
@@ -2276,7 +2325,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" ht="24" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" ht="24" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
@@ -2304,7 +2353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" ht="24.95" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -2318,7 +2367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" ht="24.95" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -2335,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" ht="24.95" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>41</v>
       </c>
@@ -2349,7 +2398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" ht="24.95" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>101</v>
       </c>
@@ -2366,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" ht="24.95" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
@@ -2376,7 +2425,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" ht="24.95" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>44</v>
       </c>
@@ -2393,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" ht="24.95" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
@@ -2410,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" ht="21.95" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -2423,9 +2472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" ht="21.95" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>116</v>
@@ -2434,60 +2483,60 @@
         <v>73</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" ht="21.95" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" ht="21.95" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" ht="21.95" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="21.95" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="21.95" customHeight="1"/>
+    <row r="78" spans="1:17" ht="21.95" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:17" ht="21.95" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:17" ht="21.95" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>112</v>
       </c>
@@ -2515,7 +2564,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="21.95" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>115</v>
       </c>
@@ -2529,7 +2578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="21.95" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>118</v>
       </c>
@@ -2543,7 +2592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="21.95" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>121</v>
       </c>
@@ -2557,7 +2606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="21.95" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>123</v>
       </c>
@@ -2571,7 +2620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="21.95" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>125</v>
       </c>
@@ -2581,47 +2630,47 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="21.95" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21.95" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="21.95" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="21.95" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" ht="21.95" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="21.95" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>127</v>
       </c>
@@ -2649,7 +2698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="21.95" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>129</v>
       </c>
@@ -2663,7 +2712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="21.95" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>131</v>
       </c>
@@ -2677,7 +2726,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="21.95" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>134</v>
       </c>
@@ -2691,55 +2740,55 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="21.95" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="21.95" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21.95" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="21.95" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="21.95" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A105" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" ht="21.95" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2753,371 +2802,410 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+    <row r="114" spans="1:4">
+      <c r="A114" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="121" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A121" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A124" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="1:4" ht="21.95" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A127" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A130" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D131" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="133" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="134" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="135" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A135" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D136" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="138" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="139" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A139" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D140" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="143" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A143" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D144" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="146" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+    <row r="148" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A149" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A156" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D157" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-    </row>
-    <row r="166" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="161" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A161" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="164" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="165" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A165" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="1:4" ht="21.95" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -3131,93 +3219,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-    </row>
-    <row r="178" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="169" spans="1:4">
+      <c r="A169" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A172" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A175" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A178" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4" ht="21.95" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -3231,141 +3326,149 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A182" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21.95" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D184" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21.95" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D185" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21.95" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D186" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21.95" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D187" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21.95" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D188" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D189" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21.95" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D190" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21.95" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21.95" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21.95" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21.95" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21.95" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="197" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-    </row>
-    <row r="198" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A197" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="1:4" ht="21.95" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" ht="21.95" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3387,695 +3490,789 @@
         <v>127</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="21.95" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21.95" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21.95" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21.95" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21.95" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21.95" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21.95" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21.95" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21.95" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21.95" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21.95" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="21.95" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="21.95" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21.95" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21.95" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21.95" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21.95" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21.95" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21.95" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21.95" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21.95" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21.95" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21.95" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-    </row>
-    <row r="228" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A226" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+    </row>
+    <row r="227" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D227" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21.95" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21.95" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D230" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21.95" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D231" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21.95" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21.95" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D233" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21.95" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D234" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21.95" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D235" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21.95" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D236" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="21.95" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-    </row>
-    <row r="243" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D237" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A247" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+    </row>
+    <row r="248" spans="1:4" ht="21.95" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
-      <c r="D248" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A249" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D249" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="21.95" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
-      <c r="D250" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D250" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="21.95" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D251" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="21.95" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="14.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
-      <c r="D256" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-    </row>
-    <row r="262" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D256" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="21.95" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
-      <c r="D263" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D263" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="21.95" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
-      <c r="D264" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="D264" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A266" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+    </row>
+    <row r="267" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A267" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D267" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="21.95" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="21.95" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="21.95" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="21.95" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="21.95" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
-      <c r="D272" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D272" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="21.95" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D273" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="21.95" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="21.95" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-    </row>
-    <row r="282" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B282" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="3"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+    </row>
+    <row r="280" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A280" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+    <row r="281" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A283" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+    </row>
+    <row r="284" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A284" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D284" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A287" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+    </row>
+    <row r="288" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A288" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D288" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="21.95" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" ht="21.95" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" ht="21.95" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
-      <c r="D291" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-    </row>
-    <row r="297" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A292" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A293" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A296" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+    </row>
+    <row r="297" spans="1:4" ht="21.95" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>0</v>
       </c>
@@ -4089,92 +4286,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" s="14" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="16"/>
-      <c r="B300" s="16"/>
-      <c r="C300" s="16"/>
-      <c r="D300" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="15"/>
-    </row>
-    <row r="307" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="15"/>
-    </row>
-    <row r="308" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-    </row>
-    <row r="310" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="300" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A300" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+    </row>
+    <row r="301" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A301" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="303" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A303" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+    </row>
+    <row r="304" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A304" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A309" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+    </row>
+    <row r="310" spans="1:4" ht="21.95" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
@@ -4188,104 +4384,819 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
-      <c r="D314" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="314" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A314" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+    </row>
+    <row r="315" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A315" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A316" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="21.95" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
-      <c r="D317" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D317" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="21.95" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
-      <c r="D319" s="4" t="s">
-        <v>191</v>
+      <c r="D318" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A319" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A320" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A321" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="27">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" s="10" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="21.95" customHeight="1">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="346" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="347" spans="1:4" ht="21.95" customHeight="1"/>
+    <row r="348" spans="1:4">
+      <c r="A348" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="5"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="3"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="14.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14"/>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="12"/>
+      <c r="B407" s="12"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="11"/>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="11"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="47">
     <mergeCell ref="A309:D309"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A292:D292"/>
     <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A300:D300"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A175:D175"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A314:D314"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A360:D360"/>
+    <mergeCell ref="A247:D247"/>
     <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A266:D266"/>
+    <mergeCell ref="A380:D380"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A156:D156"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4294,12 +5205,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4308,12 +5219,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
